--- a/data_example.xlsx
+++ b/data_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\google_colab_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85429463-9297-4966-A8B1-4CD0DAB2FCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC28740-048E-4759-822E-84BCB684E4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1152" windowWidth="19200" windowHeight="7344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>a</t>
   </si>
   <si>
     <t>b</t>
   </si>
+  <si>
+    <t>c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,44 +360,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
         <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_example.xlsx
+++ b/data_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\google_colab_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC28740-048E-4759-822E-84BCB684E4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C942A1-4987-405F-BA3D-9AD0E7611498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1152" windowWidth="19200" windowHeight="7344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>a</t>
   </si>
   <si>
     <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
 </sst>
 </file>
@@ -363,7 +360,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -375,9 +372,6 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -386,9 +380,6 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -397,9 +388,6 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -408,9 +396,7 @@
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
